--- a/ManualTestingTopics.xlsx
+++ b/ManualTestingTopics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\SOFTWARE TESTING\MANUAL TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\SOFTWARE TESTING\MANUAL_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E0B87-67F7-4E50-969D-931A98EF274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB3AFE-956B-4C20-8FE4-096F0AA7A6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{11A1106E-0D72-436A-B383-1F515D32D33E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Topics of Discussion</t>
   </si>
@@ -66,16 +66,6 @@
   </si>
   <si>
     <t>9. Different Levels of Software Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. White Box 
-       BlackBox
-       Static
-        Dynamic
-       </t>
-  </si>
-  <si>
-    <t>11. Verification and Validation</t>
   </si>
   <si>
     <t>12. System Testing Types</t>
@@ -154,6 +144,22 @@
 V-model vs Waterfall model
 Sprial vs V-Model</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10. White Box 
+       BlackBox
+       Static
+       Dynamic
+       </t>
+  </si>
+  <si>
+    <t>11. Verification vs Validation</t>
+  </si>
+  <si>
+    <t>Negative and Positive Testing</t>
+  </si>
+  <si>
+    <t>Globalization and Localization Testing</t>
   </si>
 </sst>
 </file>
@@ -561,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BC0177-6806-4B8C-A4CF-8EEF8580A257}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.44140625" defaultRowHeight="52.8" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -607,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
@@ -626,98 +632,104 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ManualTestingTopics.xlsx
+++ b/ManualTestingTopics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\SOFTWARE TESTING\MANUAL_TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\SOFTWARE TESTING\May_2023_WeekDay_Batch\MANUAL_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB3AFE-956B-4C20-8FE4-096F0AA7A6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F96FD6-134E-4EFD-93B9-020AD0C2F6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{11A1106E-0D72-436A-B383-1F515D32D33E}"/>
   </bookViews>
@@ -627,7 +627,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -688,27 +688,27 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/ManualTestingTopics.xlsx
+++ b/ManualTestingTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\SOFTWARE TESTING\May_2023_WeekDay_Batch\MANUAL_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F96FD6-134E-4EFD-93B9-020AD0C2F6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC44809-E477-46E2-90B8-5C54733A5E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{11A1106E-0D72-436A-B383-1F515D32D33E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Topics of Discussion</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Globalization and Localization Testing</t>
+  </si>
+  <si>
+    <t>Guru 99 - WBS, FP method, 3 point estimation</t>
+  </si>
+  <si>
+    <t>Guru 99</t>
   </si>
 </sst>
 </file>
@@ -567,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BC0177-6806-4B8C-A4CF-8EEF8580A257}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.44140625" defaultRowHeight="52.8" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -657,7 +663,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -688,17 +694,17 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -706,10 +712,16 @@
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">

--- a/ManualTestingTopics.xlsx
+++ b/ManualTestingTopics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\SOFTWARE TESTING\May_2023_WeekDay_Batch\MANUAL_TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SARTHAK FOLDERS\AUTOMATION\PEOPLE N TECH\ManualTestingMay2023Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC44809-E477-46E2-90B8-5C54733A5E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3C13D0-DA14-4B1D-8742-E115252DBD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{11A1106E-0D72-436A-B383-1F515D32D33E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{11A1106E-0D72-436A-B383-1F515D32D33E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,10 +119,32 @@
     <t>29. Manual Testing Bootcamp</t>
   </si>
   <si>
+    <t xml:space="preserve">10. White Box 
+       BlackBox
+       Static
+       Dynamic
+       </t>
+  </si>
+  <si>
+    <t>11. Verification vs Validation</t>
+  </si>
+  <si>
+    <t>Negative and Positive Testing</t>
+  </si>
+  <si>
+    <t>Globalization and Localization Testing</t>
+  </si>
+  <si>
+    <t>Guru 99 - WBS, FP method, 3 point estimation</t>
+  </si>
+  <si>
+    <t>Guru 99</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="20"/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -132,7 +154,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -144,28 +166,6 @@
 V-model vs Waterfall model
 Sprial vs V-Model</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">10. White Box 
-       BlackBox
-       Static
-       Dynamic
-       </t>
-  </si>
-  <si>
-    <t>11. Verification vs Validation</t>
-  </si>
-  <si>
-    <t>Negative and Positive Testing</t>
-  </si>
-  <si>
-    <t>Globalization and Localization Testing</t>
-  </si>
-  <si>
-    <t>Guru 99 - WBS, FP method, 3 point estimation</t>
-  </si>
-  <si>
-    <t>Guru 99</t>
   </si>
 </sst>
 </file>
@@ -181,15 +181,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -242,19 +242,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -275,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,174 +573,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BC0177-6806-4B8C-A4CF-8EEF8580A257}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="53.44140625" defaultRowHeight="52.8" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="53.41796875" defaultRowHeight="29.7" customHeight="1" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="1" width="72.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="53.44140625" style="1"/>
+    <col min="1" max="1" width="72.89453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="66.1015625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="53.41796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" ht="96.3" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
